--- a/code/excels/dota/dota_abilities_override.xlsx
+++ b/code/excels/dota/dota_abilities_override.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
     <t>字段</t>
   </si>
   <si>
-    <t>dota_abilities</t>
+    <t>DOTAAbilities</t>
   </si>
   <si>
     <t>RequiredLevel</t>
@@ -2604,7 +2604,7 @@
   <sheetPr/>
   <dimension ref="A1:AS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2907,19 +2907,12 @@
       <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
         <v>72</v>
       </c>
@@ -2940,28 +2933,15 @@
       <c r="D4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
       <c r="U4" s="2" t="s">
         <v>79</v>
       </c>
@@ -2979,22 +2959,15 @@
       <c r="D5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
         <v>83</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
         <v>84</v>
       </c>
@@ -3007,7 +2980,6 @@
       <c r="R5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S5" s="2"/>
       <c r="T5" s="2" t="s">
         <v>88</v>
       </c>
@@ -3028,35 +3000,27 @@
       <c r="D6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
         <v>93</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
         <v>87</v>
       </c>
@@ -3086,15 +3050,12 @@
       <c r="G7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>98</v>
       </c>
@@ -3104,15 +3065,12 @@
       <c r="O7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
         <v>101</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
       <c r="U7" s="2" t="s">
         <v>103</v>
       </c>
@@ -3129,8 +3087,8 @@
   <sheetPr/>
   <dimension ref="A1:AV7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R$1:R$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="6"/>

--- a/code/excels/dota/dota_abilities_override.xlsx
+++ b/code/excels/dota/dota_abilities_override.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="509">
   <si>
     <t>主键</t>
   </si>
@@ -220,117 +220,6 @@
   </si>
   <si>
     <t>AbilitySpecial</t>
-  </si>
-  <si>
-    <t>antimage_mana_break</t>
-  </si>
-  <si>
-    <t>ability_lua</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
-  </si>
-  <si>
-    <t>DAMAGE_TYPE_PHYSICAL</t>
-  </si>
-  <si>
-    <t>SPELL_IMMUNITY_ENEMIES_NO</t>
-  </si>
-  <si>
-    <t>Hero_Antimage.ManaBreak</t>
-  </si>
-  <si>
-    <t>ACT_DOTA_CAST_ABILITY_1</t>
-  </si>
-  <si>
-    <t>antimage_blink</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_ROOT_DISABLES | DOTA_ABILITY_BEHAVIOR_OVERSHOOT</t>
-  </si>
-  <si>
-    <t>Hero_Antimage.Blink_out</t>
-  </si>
-  <si>
-    <t>ACT_DOTA_CAST_ABILITY_2</t>
-  </si>
-  <si>
-    <t>0.4 0.4 0.4 0.4 0.4</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>antimage_counterspell</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>SPELL_DISPELLABLE_YES</t>
-  </si>
-  <si>
-    <t>ACT_DOTA_CAST_ABILITY_3</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>15 11 7 3 2</t>
-  </si>
-  <si>
-    <t>antimage_mana_overload</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_HIDDEN | DOTA_ABILITY_BEHAVIOR_SHOW_IN_GUIDES</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>antimage_mana_void</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_ABILITY_BEHAVIOR_AOE</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_TYPE_ULTIMATE</t>
-  </si>
-  <si>
-    <t>DAMAGE_TYPE_MAGICAL</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Hero_Antimage.ManaVoid</t>
-  </si>
-  <si>
-    <t>ACT_DOTA_CAST_ABILITY_4</t>
-  </si>
-  <si>
-    <t>0.3 0.3 0.3 0.3 0.3</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>100 200 300 400 500</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -2602,17 +2491,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AS17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="37.4166666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -2894,187 +2783,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:21">
-      <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:21">
-      <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:21">
-      <c r="A6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:21">
-      <c r="A7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
+    <row r="17" ht="14"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3087,7 +2796,7 @@
   <sheetPr/>
   <dimension ref="A1:AV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3098,10 +2807,10 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:48">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -3113,10 +2822,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -3244,10 +2953,10 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:48">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -3259,10 +2968,10 @@
         <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>48</v>
@@ -3390,159 +3099,159 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:48">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:48">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>45</v>
@@ -3706,2022 +3415,2022 @@
   <sheetData>
     <row r="7" spans="5:5">
       <c r="E7" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="5:5">
       <c r="E8" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="5:5">
       <c r="E10" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="5:5">
       <c r="E16" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="5:5">
       <c r="E58" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="5:5">
       <c r="E62" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="5:5">
       <c r="E70" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="5:5">
       <c r="E71" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="5:5">
       <c r="E74" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="5:5">
       <c r="E75" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="5:5">
       <c r="E76" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="5:5">
       <c r="E77" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="5:5">
       <c r="E80" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="5:5">
       <c r="E81" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="5:5">
       <c r="E82" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="5:5">
       <c r="E83" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="5:5">
       <c r="E85" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="5:5">
       <c r="E86" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="5:5">
       <c r="E87" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="5:5">
       <c r="E88" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="5:5">
       <c r="E89" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="5:5">
       <c r="E90" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="5:5">
       <c r="E91" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="5:5">
       <c r="E92" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="5:5">
       <c r="E93" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="5:5">
       <c r="E94" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="5:5">
       <c r="E95" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="5:5">
       <c r="E100" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="5:5">
       <c r="E101" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="5:5">
       <c r="E102" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="5:5">
       <c r="E103" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="5:5">
       <c r="E104" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="5:5">
       <c r="E106" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="5:5">
       <c r="E108" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="5:5">
       <c r="E110" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="5:5">
       <c r="E111" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="5:5">
       <c r="E112" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="5:5">
       <c r="E114" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="5:5">
       <c r="E115" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="5:5">
       <c r="E116" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="5:5">
       <c r="E118" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="5:5">
       <c r="E119" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="5:5">
       <c r="E120" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="5:5">
       <c r="E121" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="5:5">
       <c r="E122" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="5:5">
       <c r="E123" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="5:5">
       <c r="E125" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="5:5">
       <c r="E126" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="5:5">
       <c r="E128" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="5:5">
       <c r="E129" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="5:5">
       <c r="E131" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="5:5">
       <c r="E132" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="5:5">
       <c r="E133" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134" spans="5:5">
       <c r="E134" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135" spans="5:5">
       <c r="E135" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136" spans="5:5">
       <c r="E136" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137" spans="5:5">
       <c r="E137" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="5:5">
       <c r="E138" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="5:5">
       <c r="E139" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" spans="5:5">
       <c r="E140" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="5:5">
       <c r="E141" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142" spans="5:5">
       <c r="E142" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
     </row>
     <row r="146" spans="5:5">
       <c r="E146" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" spans="5:5">
       <c r="E147" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="5:5">
       <c r="E148" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
     </row>
     <row r="149" spans="5:5">
       <c r="E149" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
     </row>
     <row r="150" spans="5:5">
       <c r="E150" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="5:5">
       <c r="E151" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="153" spans="5:5">
       <c r="E153" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" spans="5:5">
       <c r="E154" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="5:5">
       <c r="E155" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="5:5">
       <c r="E156" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
     </row>
     <row r="157" spans="5:5">
       <c r="E157" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
     </row>
     <row r="158" spans="5:5">
       <c r="E158" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="5:5">
       <c r="E159" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="5:5">
       <c r="E160" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" spans="5:5">
       <c r="E161" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" spans="5:5">
       <c r="E162" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="163" spans="5:5">
       <c r="E163" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="5:5">
       <c r="E164" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="5:5">
       <c r="E165" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="5:5">
       <c r="E166" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="5:5">
       <c r="E167" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" spans="5:5">
       <c r="E168" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="5:5">
       <c r="E169" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="5:5">
       <c r="E170" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="5:5">
       <c r="E171" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="5:5">
       <c r="E172" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="5:5">
       <c r="E173" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="5:5">
       <c r="E174" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="5:5">
       <c r="E175" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
     </row>
     <row r="176" spans="5:5">
       <c r="E176" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="5:5">
       <c r="E177" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
     </row>
     <row r="178" spans="5:5">
       <c r="E178" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
     </row>
     <row r="179" spans="5:5">
       <c r="E179" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="5:5">
       <c r="E180" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="5:5">
       <c r="E181" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
     </row>
     <row r="182" spans="5:5">
       <c r="E182" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="5:5">
       <c r="E183" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="5:5">
       <c r="E184" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
     </row>
     <row r="185" spans="5:5">
       <c r="E185" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
     </row>
     <row r="186" spans="5:5">
       <c r="E186" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
     </row>
     <row r="187" spans="5:5">
       <c r="E187" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
     </row>
     <row r="188" spans="5:5">
       <c r="E188" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
     </row>
     <row r="189" spans="5:5">
       <c r="E189" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
     </row>
     <row r="190" spans="5:5">
       <c r="E190" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
     </row>
     <row r="191" spans="5:5">
       <c r="E191" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
     </row>
     <row r="192" spans="5:5">
       <c r="E192" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
     </row>
     <row r="193" spans="5:5">
       <c r="E193" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
     </row>
     <row r="194" spans="5:5">
       <c r="E194" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
     </row>
     <row r="195" spans="5:5">
       <c r="E195" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
     </row>
     <row r="196" spans="5:5">
       <c r="E196" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
     </row>
     <row r="197" spans="5:5">
       <c r="E197" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
     </row>
     <row r="198" spans="5:5">
       <c r="E198" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
     </row>
     <row r="199" spans="5:5">
       <c r="E199" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
     </row>
     <row r="200" spans="5:5">
       <c r="E200" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
     </row>
     <row r="201" spans="5:5">
       <c r="E201" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
     </row>
     <row r="202" spans="5:5">
       <c r="E202" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
     </row>
     <row r="203" spans="5:5">
       <c r="E203" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
     </row>
     <row r="204" spans="5:5">
       <c r="E204" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="205" spans="5:5">
       <c r="E205" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
     </row>
     <row r="206" spans="5:5">
       <c r="E206" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207" spans="5:5">
       <c r="E207" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
     </row>
     <row r="208" spans="5:5">
       <c r="E208" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
     </row>
     <row r="209" spans="5:5">
       <c r="E209" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
     </row>
     <row r="210" spans="5:5">
       <c r="E210" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
     </row>
     <row r="211" spans="5:5">
       <c r="E211" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
     </row>
     <row r="212" spans="5:5">
       <c r="E212" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
     </row>
     <row r="213" spans="5:5">
       <c r="E213" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
     </row>
     <row r="214" spans="5:5">
       <c r="E214" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
     </row>
     <row r="215" spans="5:5">
       <c r="E215" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
     </row>
     <row r="216" spans="5:5">
       <c r="E216" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
     </row>
     <row r="217" spans="5:5">
       <c r="E217" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
     </row>
     <row r="218" spans="5:5">
       <c r="E218" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
     </row>
     <row r="219" spans="5:5">
       <c r="E219" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
     </row>
     <row r="220" spans="5:5">
       <c r="E220" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
     </row>
     <row r="221" spans="5:5">
       <c r="E221" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
     </row>
     <row r="222" spans="5:5">
       <c r="E222" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
     </row>
     <row r="223" spans="5:5">
       <c r="E223" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
     </row>
     <row r="224" spans="5:5">
       <c r="E224" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
     </row>
     <row r="225" spans="5:5">
       <c r="E225" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
     </row>
     <row r="226" spans="5:5">
       <c r="E226" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
     </row>
     <row r="227" spans="5:5">
       <c r="E227" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
     </row>
     <row r="228" spans="5:5">
       <c r="E228" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
     </row>
     <row r="229" spans="5:5">
       <c r="E229" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
     </row>
     <row r="230" spans="5:5">
       <c r="E230" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
     </row>
     <row r="231" spans="5:5">
       <c r="E231" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
     </row>
     <row r="232" spans="5:5">
       <c r="E232" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
     </row>
     <row r="233" spans="5:5">
       <c r="E233" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="234" spans="5:5">
       <c r="E234" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="235" spans="5:5">
       <c r="E235" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
     </row>
     <row r="236" spans="5:5">
       <c r="E236" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
     </row>
     <row r="237" spans="5:5">
       <c r="E237" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
     </row>
     <row r="238" spans="5:5">
       <c r="E238" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
     </row>
     <row r="239" spans="5:5">
       <c r="E239" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
     </row>
     <row r="240" spans="5:5">
       <c r="E240" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
     </row>
     <row r="241" spans="5:5">
       <c r="E241" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
     </row>
     <row r="242" spans="5:5">
       <c r="E242" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
     </row>
     <row r="243" spans="5:5">
       <c r="E243" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
     </row>
     <row r="244" spans="5:5">
       <c r="E244" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
     </row>
     <row r="245" spans="5:5">
       <c r="E245" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
     </row>
     <row r="246" spans="5:5">
       <c r="E246" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
     </row>
     <row r="247" spans="5:5">
       <c r="E247" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
     </row>
     <row r="248" spans="5:5">
       <c r="E248" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
     </row>
     <row r="249" spans="5:5">
       <c r="E249" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
     </row>
     <row r="250" spans="5:5">
       <c r="E250" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
     </row>
     <row r="251" spans="5:5">
       <c r="E251" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
     </row>
     <row r="252" spans="5:5">
       <c r="E252" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="253" spans="5:5">
       <c r="E253" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
     </row>
     <row r="254" spans="5:5">
       <c r="E254" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
     </row>
     <row r="255" spans="5:5">
       <c r="E255" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
     </row>
     <row r="256" spans="5:5">
       <c r="E256" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
     </row>
     <row r="257" spans="5:5">
       <c r="E257" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
     </row>
     <row r="258" spans="5:5">
       <c r="E258" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
     </row>
     <row r="259" spans="5:5">
       <c r="E259" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
     </row>
     <row r="260" spans="5:5">
       <c r="E260" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
     </row>
     <row r="261" spans="5:5">
       <c r="E261" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
     </row>
     <row r="262" spans="5:5">
       <c r="E262" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
     </row>
     <row r="263" spans="5:5">
       <c r="E263" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
     </row>
     <row r="264" spans="5:5">
       <c r="E264" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
     </row>
     <row r="265" spans="5:5">
       <c r="E265" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
     </row>
     <row r="266" spans="5:5">
       <c r="E266" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
     </row>
     <row r="267" spans="5:5">
       <c r="E267" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
     </row>
     <row r="268" spans="5:5">
       <c r="E268" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
     </row>
     <row r="269" spans="5:5">
       <c r="E269" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
     </row>
     <row r="270" spans="5:5">
       <c r="E270" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
     </row>
     <row r="271" spans="5:5">
       <c r="E271" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
     </row>
     <row r="272" spans="5:5">
       <c r="E272" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
     </row>
     <row r="273" spans="5:5">
       <c r="E273" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
     </row>
     <row r="274" spans="5:5">
       <c r="E274" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
     </row>
     <row r="275" spans="5:5">
       <c r="E275" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
     </row>
     <row r="276" spans="5:5">
       <c r="E276" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
     </row>
     <row r="277" spans="5:5">
       <c r="E277" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
     </row>
     <row r="278" spans="5:5">
       <c r="E278" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
     </row>
     <row r="279" spans="5:5">
       <c r="E279" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
     </row>
     <row r="280" spans="5:5">
       <c r="E280" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
     </row>
     <row r="281" spans="5:5">
       <c r="E281" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
     </row>
     <row r="282" spans="5:5">
       <c r="E282" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
     </row>
     <row r="283" spans="5:5">
       <c r="E283" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
     </row>
     <row r="284" spans="5:5">
       <c r="E284" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
     </row>
     <row r="285" spans="5:5">
       <c r="E285" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
     </row>
     <row r="286" spans="5:5">
       <c r="E286" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
     </row>
     <row r="287" spans="5:5">
       <c r="E287" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
     </row>
     <row r="288" spans="5:5">
       <c r="E288" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
     </row>
     <row r="289" spans="5:5">
       <c r="E289" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
     </row>
     <row r="290" spans="5:5">
       <c r="E290" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
     </row>
     <row r="291" spans="5:5">
       <c r="E291" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
     </row>
     <row r="292" spans="5:5">
       <c r="E292" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
     </row>
     <row r="293" spans="5:5">
       <c r="E293" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
     </row>
     <row r="294" spans="5:5">
       <c r="E294" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
     </row>
     <row r="295" spans="5:5">
       <c r="E295" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
     </row>
     <row r="296" spans="5:5">
       <c r="E296" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
     </row>
     <row r="297" spans="5:5">
       <c r="E297" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
     </row>
     <row r="298" spans="5:5">
       <c r="E298" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
     </row>
     <row r="299" spans="5:5">
       <c r="E299" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
     </row>
     <row r="300" spans="5:5">
       <c r="E300" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
     </row>
     <row r="301" spans="5:5">
       <c r="E301" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
     </row>
     <row r="302" spans="5:5">
       <c r="E302" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
     </row>
     <row r="303" spans="5:5">
       <c r="E303" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
     </row>
     <row r="304" spans="5:5">
       <c r="E304" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
     </row>
     <row r="305" spans="5:5">
       <c r="E305" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
     </row>
     <row r="306" spans="5:5">
       <c r="E306" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
     </row>
     <row r="307" spans="5:5">
       <c r="E307" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
     </row>
     <row r="308" spans="5:5">
       <c r="E308" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
     </row>
     <row r="309" spans="5:5">
       <c r="E309" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
     </row>
     <row r="310" spans="5:5">
       <c r="E310" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
     </row>
     <row r="311" spans="5:5">
       <c r="E311" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
     </row>
     <row r="312" spans="5:5">
       <c r="E312" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
     </row>
     <row r="313" spans="5:5">
       <c r="E313" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
     </row>
     <row r="314" spans="5:5">
       <c r="E314" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
     </row>
     <row r="315" spans="5:5">
       <c r="E315" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
     </row>
     <row r="316" spans="5:5">
       <c r="E316" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
     </row>
     <row r="317" spans="5:5">
       <c r="E317" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
     </row>
     <row r="318" spans="5:5">
       <c r="E318" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
     </row>
     <row r="319" spans="5:5">
       <c r="E319" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
     </row>
     <row r="320" spans="5:5">
       <c r="E320" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
     </row>
     <row r="321" spans="5:5">
       <c r="E321" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
     </row>
     <row r="322" spans="5:5">
       <c r="E322" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
     </row>
     <row r="323" spans="5:5">
       <c r="E323" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
     </row>
     <row r="324" spans="5:5">
       <c r="E324" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
     </row>
     <row r="325" spans="5:5">
       <c r="E325" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
     </row>
     <row r="326" spans="5:5">
       <c r="E326" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
     </row>
     <row r="327" spans="5:5">
       <c r="E327" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
     </row>
     <row r="328" spans="5:5">
       <c r="E328" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
     </row>
     <row r="329" spans="5:5">
       <c r="E329" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
     </row>
     <row r="330" spans="5:5">
       <c r="E330" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
     </row>
     <row r="331" spans="5:5">
       <c r="E331" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
     </row>
     <row r="332" spans="5:5">
       <c r="E332" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
     </row>
     <row r="333" spans="5:5">
       <c r="E333" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
     </row>
     <row r="334" spans="5:5">
       <c r="E334" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
     </row>
     <row r="335" spans="5:5">
       <c r="E335" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
     </row>
     <row r="336" spans="5:5">
       <c r="E336" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
     </row>
     <row r="337" spans="5:5">
       <c r="E337" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
     </row>
     <row r="338" spans="5:5">
       <c r="E338" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
     </row>
     <row r="339" spans="5:5">
       <c r="E339" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
     </row>
     <row r="340" spans="5:5">
       <c r="E340" t="s">
-        <v>475</v>
+        <v>438</v>
       </c>
     </row>
     <row r="341" spans="5:5">
       <c r="E341" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
     </row>
     <row r="342" spans="5:5">
       <c r="E342" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
     </row>
     <row r="343" spans="5:5">
       <c r="E343" t="s">
-        <v>478</v>
+        <v>441</v>
       </c>
     </row>
     <row r="344" spans="5:5">
       <c r="E344" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
     </row>
     <row r="345" spans="5:5">
       <c r="E345" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
     </row>
     <row r="346" spans="5:5">
       <c r="E346" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
     </row>
     <row r="347" spans="5:5">
       <c r="E347" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
     </row>
     <row r="348" spans="5:5">
       <c r="E348" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
     </row>
     <row r="349" spans="5:5">
       <c r="E349" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
     </row>
     <row r="350" spans="5:5">
       <c r="E350" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
     </row>
     <row r="351" spans="5:5">
       <c r="E351" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
     </row>
     <row r="352" spans="5:5">
       <c r="E352" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
     </row>
     <row r="353" spans="5:5">
       <c r="E353" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
     </row>
     <row r="354" spans="5:5">
       <c r="E354" t="s">
-        <v>489</v>
+        <v>452</v>
       </c>
     </row>
     <row r="355" spans="5:5">
       <c r="E355" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
     </row>
     <row r="356" spans="5:5">
       <c r="E356" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
     </row>
     <row r="357" spans="5:5">
       <c r="E357" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
     </row>
     <row r="358" spans="5:5">
       <c r="E358" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
     </row>
     <row r="359" spans="5:5">
       <c r="E359" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
     </row>
     <row r="360" spans="5:5">
       <c r="E360" t="s">
-        <v>495</v>
+        <v>458</v>
       </c>
     </row>
     <row r="361" spans="5:5">
       <c r="E361" t="s">
-        <v>496</v>
+        <v>459</v>
       </c>
     </row>
     <row r="362" spans="5:5">
       <c r="E362" t="s">
-        <v>497</v>
+        <v>460</v>
       </c>
     </row>
     <row r="363" spans="5:5">
       <c r="E363" t="s">
-        <v>498</v>
+        <v>461</v>
       </c>
     </row>
     <row r="364" spans="5:5">
       <c r="E364" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
     </row>
     <row r="365" spans="5:5">
       <c r="E365" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
     </row>
     <row r="366" spans="5:5">
       <c r="E366" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
     </row>
     <row r="367" spans="5:5">
       <c r="E367" t="s">
-        <v>502</v>
+        <v>465</v>
       </c>
     </row>
     <row r="368" spans="5:5">
       <c r="E368" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
     </row>
     <row r="369" spans="5:5">
       <c r="E369" t="s">
-        <v>504</v>
+        <v>467</v>
       </c>
     </row>
     <row r="370" spans="5:5">
       <c r="E370" t="s">
-        <v>505</v>
+        <v>468</v>
       </c>
     </row>
     <row r="371" spans="5:5">
       <c r="E371" t="s">
-        <v>506</v>
+        <v>469</v>
       </c>
     </row>
     <row r="372" spans="5:5">
       <c r="E372" t="s">
-        <v>507</v>
+        <v>470</v>
       </c>
     </row>
     <row r="373" spans="5:5">
       <c r="E373" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
     </row>
     <row r="374" spans="5:5">
       <c r="E374" t="s">
-        <v>509</v>
+        <v>472</v>
       </c>
     </row>
     <row r="375" spans="5:5">
       <c r="E375" t="s">
-        <v>510</v>
+        <v>473</v>
       </c>
     </row>
     <row r="376" spans="5:5">
       <c r="E376" t="s">
-        <v>511</v>
+        <v>474</v>
       </c>
     </row>
     <row r="377" spans="5:5">
       <c r="E377" t="s">
-        <v>512</v>
+        <v>475</v>
       </c>
     </row>
     <row r="378" spans="5:5">
       <c r="E378" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
     </row>
     <row r="379" spans="5:5">
       <c r="E379" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
     </row>
     <row r="380" spans="5:5">
       <c r="E380" t="s">
-        <v>515</v>
+        <v>478</v>
       </c>
     </row>
     <row r="381" spans="5:5">
       <c r="E381" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
     </row>
     <row r="382" spans="5:5">
       <c r="E382" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
     </row>
     <row r="383" spans="5:5">
       <c r="E383" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="384" spans="5:5">
       <c r="E384" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
     </row>
     <row r="385" spans="5:5">
       <c r="E385" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="386" spans="5:5">
       <c r="E386" t="s">
-        <v>521</v>
+        <v>484</v>
       </c>
     </row>
     <row r="387" spans="5:5">
       <c r="E387" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="388" spans="5:5">
       <c r="E388" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="389" spans="5:5">
       <c r="E389" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="390" spans="5:5">
       <c r="E390" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="391" spans="5:5">
       <c r="E391" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
     </row>
     <row r="392" spans="5:5">
       <c r="E392" t="s">
-        <v>527</v>
+        <v>490</v>
       </c>
     </row>
     <row r="393" spans="5:5">
       <c r="E393" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
     </row>
     <row r="394" spans="5:5">
       <c r="E394" t="s">
-        <v>529</v>
+        <v>492</v>
       </c>
     </row>
     <row r="395" spans="5:5">
       <c r="E395" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
     </row>
     <row r="396" spans="5:5">
       <c r="E396" t="s">
-        <v>531</v>
+        <v>494</v>
       </c>
     </row>
     <row r="397" spans="5:5">
       <c r="E397" t="s">
-        <v>532</v>
+        <v>495</v>
       </c>
     </row>
     <row r="398" spans="5:5">
       <c r="E398" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="399" spans="5:5">
       <c r="E399" t="s">
-        <v>534</v>
+        <v>497</v>
       </c>
     </row>
     <row r="400" spans="5:5">
       <c r="E400" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
     </row>
     <row r="401" spans="5:5">
       <c r="E401" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
     </row>
     <row r="402" spans="5:5">
       <c r="E402" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
     </row>
     <row r="403" spans="5:5">
       <c r="E403" t="s">
-        <v>538</v>
+        <v>501</v>
       </c>
     </row>
     <row r="404" spans="5:5">
       <c r="E404" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
     </row>
     <row r="405" spans="5:5">
       <c r="E405" t="s">
-        <v>540</v>
+        <v>503</v>
       </c>
     </row>
     <row r="406" spans="5:5">
       <c r="E406" t="s">
-        <v>541</v>
+        <v>504</v>
       </c>
     </row>
     <row r="407" spans="5:5">
       <c r="E407" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
     </row>
     <row r="408" spans="5:5">
       <c r="E408" t="s">
-        <v>543</v>
+        <v>506</v>
       </c>
     </row>
     <row r="409" spans="5:5">
       <c r="E409" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
     </row>
     <row r="410" spans="5:5">
       <c r="E410" t="s">
-        <v>545</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/dota/dota_abilities_override.xlsx
+++ b/code/excels/dota/dota_abilities_override.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="511">
   <si>
     <t>主键</t>
   </si>
@@ -81,6 +81,9 @@
     <t>冷却时间</t>
   </si>
   <si>
+    <t>持续施法时间</t>
+  </si>
+  <si>
     <t>技能耗蓝</t>
   </si>
   <si>
@@ -214,6 +217,9 @@
   </si>
   <si>
     <t>AbilityCooldown</t>
+  </si>
+  <si>
+    <t>AbilityChannelTime</t>
   </si>
   <si>
     <t>AbilityManaCost</t>
@@ -2166,11 +2172,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2491,25 +2498,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS17"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="37.4166666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.4166666666667" style="2" customWidth="1"/>
-    <col min="4" max="16379" width="9" style="2"/>
+    <col min="4" max="16380" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:45">
+    <row r="1" s="2" customFormat="1" spans="1:46">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2570,7 +2577,7 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
@@ -2645,145 +2652,150 @@
       <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:45">
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:46">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="U2" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="V2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" ht="14"/>
+        <v>68</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2794,23 +2806,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AW7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="16380" width="9" style="2"/>
+    <col min="1" max="16381" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:48">
+    <row r="1" s="2" customFormat="1" spans="1:49">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2822,10 +2834,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -2875,7 +2887,7 @@
       <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Y1" s="2" t="s">
@@ -2950,443 +2962,455 @@
       <c r="AV1" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:48">
+      <c r="AW1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:49">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:49">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:49">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:48">
-      <c r="A3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:48">
-      <c r="A4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1"/>
@@ -3415,2022 +3439,2022 @@
   <sheetData>
     <row r="7" spans="5:5">
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="5:5">
       <c r="E8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="5:5">
       <c r="E10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="5:5">
       <c r="E16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="5:5">
       <c r="E58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="5:5">
       <c r="E62" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="5:5">
       <c r="E70" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="5:5">
       <c r="E71" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="5:5">
       <c r="E74" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="5:5">
       <c r="E75" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="5:5">
       <c r="E76" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="5:5">
       <c r="E77" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="5:5">
       <c r="E80" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="5:5">
       <c r="E81" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="5:5">
       <c r="E82" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="5:5">
       <c r="E83" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="5:5">
       <c r="E85" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="5:5">
       <c r="E86" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="5:5">
       <c r="E87" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="5:5">
       <c r="E88" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="5:5">
       <c r="E89" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="5:5">
       <c r="E90" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="5:5">
       <c r="E91" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="5:5">
       <c r="E92" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="5:5">
       <c r="E93" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="5:5">
       <c r="E94" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="5:5">
       <c r="E95" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="5:5">
       <c r="E100" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="5:5">
       <c r="E101" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="5:5">
       <c r="E102" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="5:5">
       <c r="E103" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="5:5">
       <c r="E104" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="5:5">
       <c r="E106" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="5:5">
       <c r="E108" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="5:5">
       <c r="E110" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="5:5">
       <c r="E111" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="5:5">
       <c r="E112" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="5:5">
       <c r="E114" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="5:5">
       <c r="E115" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="5:5">
       <c r="E116" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="5:5">
       <c r="E118" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="5:5">
       <c r="E119" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="5:5">
       <c r="E120" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="5:5">
       <c r="E121" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="5:5">
       <c r="E122" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="5:5">
       <c r="E123" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="5:5">
       <c r="E125" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="5:5">
       <c r="E126" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="5:5">
       <c r="E128" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="5:5">
       <c r="E129" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="5:5">
       <c r="E131" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="5:5">
       <c r="E132" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="5:5">
       <c r="E133" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="5:5">
       <c r="E134" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="5:5">
       <c r="E135" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="5:5">
       <c r="E136" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="5:5">
       <c r="E137" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="5:5">
       <c r="E138" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="5:5">
       <c r="E139" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="5:5">
       <c r="E140" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="5:5">
       <c r="E141" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="5:5">
       <c r="E142" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="5:5">
       <c r="E146" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="5:5">
       <c r="E147" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" spans="5:5">
       <c r="E148" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="5:5">
       <c r="E149" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="5:5">
       <c r="E150" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="5:5">
       <c r="E151" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153" spans="5:5">
       <c r="E153" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="154" spans="5:5">
       <c r="E154" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="155" spans="5:5">
       <c r="E155" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="156" spans="5:5">
       <c r="E156" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="5:5">
       <c r="E157" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="5:5">
       <c r="E158" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="159" spans="5:5">
       <c r="E159" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="5:5">
       <c r="E160" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="5:5">
       <c r="E161" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="5:5">
       <c r="E162" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="163" spans="5:5">
       <c r="E163" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="5:5">
       <c r="E164" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="5:5">
       <c r="E165" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="5:5">
       <c r="E166" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" spans="5:5">
       <c r="E167" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="5:5">
       <c r="E168" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="5:5">
       <c r="E169" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="5:5">
       <c r="E170" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="5:5">
       <c r="E171" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="5:5">
       <c r="E172" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="5:5">
       <c r="E173" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="5:5">
       <c r="E174" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="5:5">
       <c r="E175" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="5:5">
       <c r="E176" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="5:5">
       <c r="E177" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="5:5">
       <c r="E178" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="5:5">
       <c r="E179" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="5:5">
       <c r="E180" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="5:5">
       <c r="E181" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="5:5">
       <c r="E182" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="5:5">
       <c r="E183" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="5:5">
       <c r="E184" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="185" spans="5:5">
       <c r="E185" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="186" spans="5:5">
       <c r="E186" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="187" spans="5:5">
       <c r="E187" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="188" spans="5:5">
       <c r="E188" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="189" spans="5:5">
       <c r="E189" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="190" spans="5:5">
       <c r="E190" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="191" spans="5:5">
       <c r="E191" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="5:5">
       <c r="E192" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="193" spans="5:5">
       <c r="E193" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="194" spans="5:5">
       <c r="E194" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="195" spans="5:5">
       <c r="E195" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="196" spans="5:5">
       <c r="E196" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="197" spans="5:5">
       <c r="E197" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="198" spans="5:5">
       <c r="E198" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="199" spans="5:5">
       <c r="E199" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="200" spans="5:5">
       <c r="E200" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="201" spans="5:5">
       <c r="E201" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="202" spans="5:5">
       <c r="E202" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="5:5">
       <c r="E203" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="204" spans="5:5">
       <c r="E204" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="205" spans="5:5">
       <c r="E205" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="206" spans="5:5">
       <c r="E206" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="207" spans="5:5">
       <c r="E207" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="208" spans="5:5">
       <c r="E208" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="209" spans="5:5">
       <c r="E209" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="210" spans="5:5">
       <c r="E210" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="211" spans="5:5">
       <c r="E211" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="212" spans="5:5">
       <c r="E212" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="213" spans="5:5">
       <c r="E213" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="214" spans="5:5">
       <c r="E214" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="215" spans="5:5">
       <c r="E215" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="216" spans="5:5">
       <c r="E216" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="217" spans="5:5">
       <c r="E217" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="218" spans="5:5">
       <c r="E218" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="219" spans="5:5">
       <c r="E219" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="220" spans="5:5">
       <c r="E220" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="221" spans="5:5">
       <c r="E221" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="222" spans="5:5">
       <c r="E222" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="223" spans="5:5">
       <c r="E223" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="224" spans="5:5">
       <c r="E224" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="225" spans="5:5">
       <c r="E225" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="226" spans="5:5">
       <c r="E226" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="227" spans="5:5">
       <c r="E227" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="228" spans="5:5">
       <c r="E228" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="229" spans="5:5">
       <c r="E229" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="230" spans="5:5">
       <c r="E230" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="231" spans="5:5">
       <c r="E231" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="232" spans="5:5">
       <c r="E232" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="233" spans="5:5">
       <c r="E233" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="234" spans="5:5">
       <c r="E234" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="235" spans="5:5">
       <c r="E235" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="236" spans="5:5">
       <c r="E236" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="237" spans="5:5">
       <c r="E237" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="238" spans="5:5">
       <c r="E238" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="239" spans="5:5">
       <c r="E239" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="240" spans="5:5">
       <c r="E240" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="241" spans="5:5">
       <c r="E241" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="242" spans="5:5">
       <c r="E242" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="243" spans="5:5">
       <c r="E243" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="244" spans="5:5">
       <c r="E244" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="245" spans="5:5">
       <c r="E245" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="246" spans="5:5">
       <c r="E246" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="247" spans="5:5">
       <c r="E247" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="248" spans="5:5">
       <c r="E248" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="249" spans="5:5">
       <c r="E249" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="250" spans="5:5">
       <c r="E250" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="251" spans="5:5">
       <c r="E251" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="252" spans="5:5">
       <c r="E252" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="253" spans="5:5">
       <c r="E253" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="254" spans="5:5">
       <c r="E254" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="255" spans="5:5">
       <c r="E255" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="256" spans="5:5">
       <c r="E256" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="257" spans="5:5">
       <c r="E257" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="258" spans="5:5">
       <c r="E258" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="259" spans="5:5">
       <c r="E259" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="260" spans="5:5">
       <c r="E260" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="261" spans="5:5">
       <c r="E261" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="262" spans="5:5">
       <c r="E262" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="263" spans="5:5">
       <c r="E263" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="264" spans="5:5">
       <c r="E264" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="265" spans="5:5">
       <c r="E265" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="266" spans="5:5">
       <c r="E266" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="267" spans="5:5">
       <c r="E267" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="268" spans="5:5">
       <c r="E268" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="269" spans="5:5">
       <c r="E269" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="270" spans="5:5">
       <c r="E270" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="271" spans="5:5">
       <c r="E271" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="272" spans="5:5">
       <c r="E272" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="273" spans="5:5">
       <c r="E273" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="274" spans="5:5">
       <c r="E274" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="275" spans="5:5">
       <c r="E275" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="276" spans="5:5">
       <c r="E276" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="277" spans="5:5">
       <c r="E277" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="278" spans="5:5">
       <c r="E278" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="279" spans="5:5">
       <c r="E279" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="280" spans="5:5">
       <c r="E280" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="281" spans="5:5">
       <c r="E281" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="282" spans="5:5">
       <c r="E282" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="283" spans="5:5">
       <c r="E283" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="284" spans="5:5">
       <c r="E284" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="285" spans="5:5">
       <c r="E285" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="286" spans="5:5">
       <c r="E286" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="287" spans="5:5">
       <c r="E287" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="288" spans="5:5">
       <c r="E288" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="289" spans="5:5">
       <c r="E289" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="290" spans="5:5">
       <c r="E290" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="291" spans="5:5">
       <c r="E291" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="292" spans="5:5">
       <c r="E292" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="293" spans="5:5">
       <c r="E293" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="294" spans="5:5">
       <c r="E294" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="295" spans="5:5">
       <c r="E295" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="296" spans="5:5">
       <c r="E296" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="297" spans="5:5">
       <c r="E297" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="298" spans="5:5">
       <c r="E298" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="299" spans="5:5">
       <c r="E299" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="300" spans="5:5">
       <c r="E300" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="301" spans="5:5">
       <c r="E301" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="302" spans="5:5">
       <c r="E302" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="303" spans="5:5">
       <c r="E303" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="304" spans="5:5">
       <c r="E304" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="305" spans="5:5">
       <c r="E305" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="306" spans="5:5">
       <c r="E306" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="307" spans="5:5">
       <c r="E307" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="308" spans="5:5">
       <c r="E308" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="309" spans="5:5">
       <c r="E309" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="310" spans="5:5">
       <c r="E310" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="311" spans="5:5">
       <c r="E311" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="312" spans="5:5">
       <c r="E312" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="313" spans="5:5">
       <c r="E313" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="314" spans="5:5">
       <c r="E314" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="315" spans="5:5">
       <c r="E315" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="316" spans="5:5">
       <c r="E316" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="317" spans="5:5">
       <c r="E317" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="318" spans="5:5">
       <c r="E318" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="319" spans="5:5">
       <c r="E319" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="320" spans="5:5">
       <c r="E320" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="321" spans="5:5">
       <c r="E321" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="322" spans="5:5">
       <c r="E322" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="323" spans="5:5">
       <c r="E323" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="324" spans="5:5">
       <c r="E324" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="325" spans="5:5">
       <c r="E325" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="326" spans="5:5">
       <c r="E326" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="327" spans="5:5">
       <c r="E327" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="328" spans="5:5">
       <c r="E328" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="329" spans="5:5">
       <c r="E329" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="330" spans="5:5">
       <c r="E330" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="331" spans="5:5">
       <c r="E331" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="332" spans="5:5">
       <c r="E332" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="333" spans="5:5">
       <c r="E333" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="334" spans="5:5">
       <c r="E334" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="335" spans="5:5">
       <c r="E335" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="336" spans="5:5">
       <c r="E336" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="337" spans="5:5">
       <c r="E337" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="338" spans="5:5">
       <c r="E338" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="339" spans="5:5">
       <c r="E339" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="340" spans="5:5">
       <c r="E340" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="341" spans="5:5">
       <c r="E341" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="342" spans="5:5">
       <c r="E342" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="343" spans="5:5">
       <c r="E343" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="344" spans="5:5">
       <c r="E344" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="345" spans="5:5">
       <c r="E345" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="346" spans="5:5">
       <c r="E346" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="347" spans="5:5">
       <c r="E347" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="348" spans="5:5">
       <c r="E348" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="349" spans="5:5">
       <c r="E349" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="350" spans="5:5">
       <c r="E350" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="351" spans="5:5">
       <c r="E351" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="352" spans="5:5">
       <c r="E352" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="353" spans="5:5">
       <c r="E353" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="354" spans="5:5">
       <c r="E354" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="355" spans="5:5">
       <c r="E355" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="356" spans="5:5">
       <c r="E356" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="357" spans="5:5">
       <c r="E357" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="358" spans="5:5">
       <c r="E358" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="359" spans="5:5">
       <c r="E359" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="360" spans="5:5">
       <c r="E360" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="361" spans="5:5">
       <c r="E361" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="362" spans="5:5">
       <c r="E362" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="363" spans="5:5">
       <c r="E363" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="364" spans="5:5">
       <c r="E364" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="365" spans="5:5">
       <c r="E365" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="366" spans="5:5">
       <c r="E366" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="367" spans="5:5">
       <c r="E367" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="368" spans="5:5">
       <c r="E368" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="369" spans="5:5">
       <c r="E369" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="370" spans="5:5">
       <c r="E370" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="371" spans="5:5">
       <c r="E371" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="372" spans="5:5">
       <c r="E372" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="373" spans="5:5">
       <c r="E373" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="374" spans="5:5">
       <c r="E374" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="375" spans="5:5">
       <c r="E375" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="376" spans="5:5">
       <c r="E376" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="377" spans="5:5">
       <c r="E377" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="378" spans="5:5">
       <c r="E378" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="379" spans="5:5">
       <c r="E379" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="380" spans="5:5">
       <c r="E380" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="381" spans="5:5">
       <c r="E381" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="382" spans="5:5">
       <c r="E382" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="383" spans="5:5">
       <c r="E383" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="384" spans="5:5">
       <c r="E384" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="385" spans="5:5">
       <c r="E385" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="386" spans="5:5">
       <c r="E386" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="387" spans="5:5">
       <c r="E387" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="388" spans="5:5">
       <c r="E388" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="389" spans="5:5">
       <c r="E389" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="390" spans="5:5">
       <c r="E390" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="391" spans="5:5">
       <c r="E391" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="392" spans="5:5">
       <c r="E392" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="393" spans="5:5">
       <c r="E393" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="394" spans="5:5">
       <c r="E394" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="395" spans="5:5">
       <c r="E395" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="396" spans="5:5">
       <c r="E396" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="397" spans="5:5">
       <c r="E397" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="398" spans="5:5">
       <c r="E398" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="399" spans="5:5">
       <c r="E399" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="400" spans="5:5">
       <c r="E400" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="401" spans="5:5">
       <c r="E401" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="402" spans="5:5">
       <c r="E402" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="403" spans="5:5">
       <c r="E403" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="404" spans="5:5">
       <c r="E404" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="405" spans="5:5">
       <c r="E405" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="406" spans="5:5">
       <c r="E406" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="407" spans="5:5">
       <c r="E407" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="408" spans="5:5">
       <c r="E408" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="409" spans="5:5">
       <c r="E409" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="410" spans="5:5">
       <c r="E410" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
